--- a/project/submission/solution_prediction_excel.xlsx
+++ b/project/submission/solution_prediction_excel.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36279.10476706197</v>
+        <v>33781.32932969299</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37850.31472626953</v>
+        <v>34918.70660652517</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37955.93420782381</v>
+        <v>35177.12058222152</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36535.68600101295</v>
+        <v>34569.69467267512</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34529.5453163473</v>
+        <v>32271.63982053344</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35032.54124931885</v>
+        <v>33381.37680319299</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33818.82397089996</v>
+        <v>32788.46777192615</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38025.70755596251</v>
+        <v>35088.46671792377</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38148.80915215942</v>
+        <v>35346.88069362013</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38317.62695024803</v>
+        <v>36152.79399000359</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34634.78360992711</v>
+        <v>32441.39993193204</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35137.77954289866</v>
+        <v>33551.13691459159</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34395.64826050025</v>
+        <v>32958.22788332475</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>33853.05994658459</v>
+        <v>32603.80004801763</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37850.05157505767</v>
+        <v>35151.43097247044</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37953.15317125458</v>
+        <v>35409.84494816679</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>38151.97096934319</v>
+        <v>36215.75824455026</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34555.65796596021</v>
+        <v>33205.69762790875</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34849.21361532465</v>
+        <v>34315.4346105683</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>40238.58502380572</v>
+        <v>35203.90453479982</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>38084.99993969643</v>
+        <v>35462.31851049617</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38263.81773778504</v>
+        <v>36268.23180687964</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>35530.72000093252</v>
+        <v>33408.16075577128</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34603.92512076336</v>
+        <v>32815.25172450444</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>34576.68924493531</v>
+        <v>33073.66570020079</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>36733.17809542982</v>
+        <v>36997.70713517137</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38551.4138085164</v>
+        <v>35504.09626971107</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>38995.75061287259</v>
+        <v>36029.69819780444</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>38364.2650921388</v>
+        <v>36568.42354179089</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35311.51809810424</v>
+        <v>34355.77476176653</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>36026.65974348917</v>
+        <v>35465.51174442608</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35387.1966622054</v>
+        <v>34872.60271315923</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>38525.19178690041</v>
+        <v>36009.97998999141</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>38939.52859125659</v>
+        <v>36535.5819180848</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>38318.04307052281</v>
+        <v>37074.30726207124</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35537.15730480173</v>
+        <v>35130.78991940806</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>38718.46568371205</v>
+        <v>36268.16719624024</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>39112.80248806824</v>
+        <v>36793.76912433362</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>38501.31696733445</v>
+        <v>37332.49446832006</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35728.04808145414</v>
+        <v>34082.38863798392</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>36248.52612906833</v>
+        <v>35192.12562064346</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35349.96020348818</v>
+        <v>33986.37477837315</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>38874.38285296484</v>
+        <v>36437.92730763884</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>39036.87937416692</v>
+        <v>36963.52923573222</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>38425.39385343313</v>
+        <v>37502.25457971867</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>38819.93777205795</v>
+        <v>36479.91017775093</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>38933.03936825486</v>
+        <v>36738.32415344728</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>39111.85716634347</v>
+        <v>37544.23744983075</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>36180.43956953083</v>
+        <v>35385.49984015244</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>36190.68580834541</v>
+        <v>35643.91381584878</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>34933.2020878594</v>
+        <v>34438.16297357847</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>38962.69436472483</v>
+        <v>36537.62908618895</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>39085.79596092174</v>
+        <v>36796.0430618853</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>39264.61375901035</v>
+        <v>37601.95635826877</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>35646.62061558747</v>
+        <v>33890.56230019722</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>34986.42516735165</v>
+        <v>33965.65996587503</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>33656.27324575101</v>
+        <v>32759.90912360471</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>34772.45290410904</v>
+        <v>33234.02946220931</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>34578.03554515287</v>
+        <v>33492.44343790566</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>34590.79966932482</v>
+        <v>33750.85741360202</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>38066.3060736324</v>
+        <v>35589.56813186424</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>38169.40766982931</v>
+        <v>35847.98210756059</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>38338.22546791792</v>
+        <v>36653.89540394406</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>34643.39526295308</v>
+        <v>32942.50134587251</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>35146.39119592463</v>
+        <v>34052.23832853205</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>33972.67391750574</v>
+        <v>33459.32929726521</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>34464.25468613402</v>
+        <v>33685.81765741463</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>34494.50092494861</v>
+        <v>33944.23163311099</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>35284.82865680553</v>
+        <v>35053.96861577054</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>37742.64226535345</v>
+        <v>35340.02288563952</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>38573.15715347807</v>
+        <v>36449.75986829907</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>37565.49354897585</v>
+        <v>36404.35015771935</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>34851.6189785957</v>
+        <v>33378.32673330436</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>35372.09702620989</v>
+        <v>34488.06371596391</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>34021.94510460924</v>
+        <v>33282.3128736936</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>35438.9638919979</v>
+        <v>34623.71902703486</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>34724.31472424214</v>
+        <v>34030.80999576802</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>34789.74704952871</v>
+        <v>34289.22397146437</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>38608.46872036675</v>
+        <v>36277.92425525974</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>38009.19279535067</v>
+        <v>35685.0152239929</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>36282.78186312869</v>
+        <v>36490.92852037637</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
